--- a/엑셀/나의 프로젝트 요구사항 정의.xlsx
+++ b/엑셀/나의 프로젝트 요구사항 정의.xlsx
@@ -5,23 +5,24 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\202007291532\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizwork\workspace\spring\엑셀\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="readbookV2" sheetId="27" r:id="rId1"/>
     <sheet name="요구사항분석 " sheetId="28" r:id="rId2"/>
     <sheet name="요구사항분석  (2)" sheetId="29" r:id="rId3"/>
+    <sheet name="2020-10-19 분석" sheetId="30" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="157">
   <si>
     <t>구분</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -591,6 +592,114 @@
   </si>
   <si>
     <t>블로그의 글 하단에 댓글을 달수 있고 다른이용자가 그글에 덧붙여 답글을 달 수 있게 해준다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>익명의 단순한 CRUD게시판</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문견우 / 기건우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디어 분석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 익명의 사용자 글 crud</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자들끼리 의견공유를 할수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>많은 익명의 사용자들에게 소문이 나면 광고를 붙여 수익을 낼수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>익명 글작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대문이모티콘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보통의 사이트처럼 리스트로 메인화면으로 가는것이 아니라 대문 이모티콘으로 갈수있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인화면(헤더)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목록 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호,제목,날짜,시간,작성자를 볼수있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인화면(푸터)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일이 나온다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>글작성CRUD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>익명으로 글을 작성하고 수정 삭제 등을 할수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인화면(3분할)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인화면 가기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보여지는 메인화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가운데는 리스트가 나오고 양쪽에는 이미지가 나온다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원하는 키워드 검색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목,작성자들을 검색할수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자세히보기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>글을 클릭하면 슬라이드가 밀어지고 핸드폰 다이얼처럼 디테일하게나온다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성글 자세히보기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1488,7 +1597,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1600,162 +1709,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1767,21 +1726,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1793,12 +1737,228 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준_서비스정의 계획" xfId="1"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="11">
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="55"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="55"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="44"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="44"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="55"/>
+        </top>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -1896,7 +2056,7 @@
         <xdr:cNvPr id="3" name="오른쪽 중괄호 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1958,7 +2118,7 @@
         <xdr:cNvPr id="2" name="오른쪽 중괄호 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2020,7 +2180,7 @@
         <xdr:cNvPr id="2" name="오른쪽 중괄호 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2029,6 +2189,68 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6924675" y="971550"/>
+          <a:ext cx="314325" cy="2257425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="오른쪽 중괄호 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10572750" y="971550"/>
           <a:ext cx="314325" cy="2257425"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
@@ -2376,46 +2598,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="9" customHeight="1">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="41"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="93"/>
     </row>
     <row r="3" spans="2:11" ht="9" customHeight="1">
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="96"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="74" t="s">
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="75"/>
+      <c r="H4" s="81"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
       <c r="G5" s="31">
         <v>44039</v>
       </c>
@@ -2425,224 +2647,224 @@
     </row>
     <row r="6" spans="2:11" ht="9" customHeight="1"/>
     <row r="7" spans="2:11">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="101"/>
       <c r="G7" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="61"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="111"/>
       <c r="K7" s="29" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="52"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="54"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="104"/>
       <c r="G8" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="63"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="85"/>
       <c r="K8" s="29" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="52"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="76" t="s">
+      <c r="B9" s="102"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="45" t="s">
+      <c r="H9" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="45"/>
+      <c r="I9" s="97"/>
       <c r="K9" s="29" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="52"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="45" t="s">
+      <c r="B10" s="102"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="45"/>
+      <c r="I10" s="97"/>
       <c r="K10" s="29" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="52"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="54"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="104"/>
       <c r="G11" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="62"/>
-      <c r="I11" s="63"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="85"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="52"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="54"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="104"/>
       <c r="G12" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="62"/>
-      <c r="I12" s="63"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="85"/>
       <c r="K12" s="29" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="55"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="57"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="107"/>
       <c r="G13" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="62"/>
-      <c r="I13" s="63"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="85"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="78" t="s">
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="79"/>
-      <c r="I14" s="80"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="88"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="55"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="78" t="s">
+      <c r="B15" s="105"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="79"/>
-      <c r="I15" s="80"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="88"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="59" t="s">
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="59" t="s">
+      <c r="H16" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="59" t="s">
+      <c r="I16" s="109" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:20">
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="59" t="s">
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="59" t="s">
+      <c r="H17" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="59" t="s">
+      <c r="I17" s="109" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="18" spans="2:20" ht="6.75" customHeight="1" thickBot="1"/>
     <row r="19" spans="2:20">
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="46" t="s">
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="G19" s="73" t="s">
+      <c r="G19" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="46" t="s">
+      <c r="H19" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="46" t="s">
+      <c r="I19" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="46" t="s">
+      <c r="J19" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="K19" s="81" t="s">
+      <c r="K19" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="68"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="83" t="s">
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="P19" s="84"/>
-      <c r="Q19" s="84"/>
-      <c r="R19" s="84"/>
-      <c r="S19" s="85"/>
-      <c r="T19" s="86" t="s">
+      <c r="P19" s="63"/>
+      <c r="Q19" s="63"/>
+      <c r="R19" s="63"/>
+      <c r="S19" s="64"/>
+      <c r="T19" s="65" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:20" ht="17.25" thickBot="1">
-      <c r="B20" s="70"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="72"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="76"/>
       <c r="O20" s="21" t="s">
         <v>4</v>
       </c>
@@ -2658,7 +2880,7 @@
       <c r="S20" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="T20" s="87"/>
+      <c r="T20" s="66"/>
     </row>
     <row r="21" spans="2:20">
       <c r="B21" s="2">
@@ -2688,12 +2910,12 @@
       <c r="J21" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="K21" s="88" t="s">
+      <c r="K21" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="90"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="69"/>
       <c r="O21" s="16" t="s">
         <v>15</v>
       </c>
@@ -2737,12 +2959,12 @@
       <c r="J22" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="K22" s="64" t="s">
+      <c r="K22" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="65"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="66"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="61"/>
       <c r="O22" s="17"/>
       <c r="P22" s="18"/>
       <c r="Q22" s="18"/>
@@ -2776,12 +2998,12 @@
       <c r="J23" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="K23" s="91" t="s">
+      <c r="K23" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="66"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="61"/>
       <c r="O23" s="18"/>
       <c r="P23" s="18"/>
       <c r="Q23" s="18"/>
@@ -2799,10 +3021,10 @@
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="9"/>
-      <c r="K24" s="91"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="66"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="61"/>
       <c r="O24" s="18"/>
       <c r="P24" s="18"/>
       <c r="Q24" s="18"/>
@@ -2836,10 +3058,10 @@
       <c r="J25" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="K25" s="91"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="65"/>
-      <c r="N25" s="66"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="61"/>
       <c r="O25" s="18"/>
       <c r="P25" s="18"/>
       <c r="Q25" s="18"/>
@@ -2873,10 +3095,10 @@
       <c r="J26" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="K26" s="91"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="65"/>
-      <c r="N26" s="66"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="61"/>
       <c r="O26" s="18"/>
       <c r="P26" s="18"/>
       <c r="Q26" s="18"/>
@@ -2894,10 +3116,10 @@
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="9"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="66"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="60"/>
+      <c r="N27" s="61"/>
       <c r="O27" s="18"/>
       <c r="P27" s="18"/>
       <c r="Q27" s="18"/>
@@ -2915,10 +3137,10 @@
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="9"/>
-      <c r="K28" s="91"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="66"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="61"/>
       <c r="O28" s="18"/>
       <c r="P28" s="18"/>
       <c r="Q28" s="18"/>
@@ -2936,10 +3158,10 @@
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="9"/>
-      <c r="K29" s="91"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="65"/>
-      <c r="N29" s="66"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="61"/>
       <c r="O29" s="18"/>
       <c r="P29" s="18"/>
       <c r="Q29" s="18"/>
@@ -2957,10 +3179,10 @@
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="9"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="65"/>
-      <c r="M30" s="65"/>
-      <c r="N30" s="66"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="61"/>
       <c r="O30" s="18"/>
       <c r="P30" s="18"/>
       <c r="Q30" s="18"/>
@@ -2982,10 +3204,10 @@
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="9"/>
-      <c r="K31" s="91"/>
-      <c r="L31" s="65"/>
-      <c r="M31" s="65"/>
-      <c r="N31" s="66"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="60"/>
+      <c r="N31" s="61"/>
       <c r="O31" s="18"/>
       <c r="P31" s="18"/>
       <c r="Q31" s="18"/>
@@ -3007,10 +3229,10 @@
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="9"/>
-      <c r="K32" s="91"/>
-      <c r="L32" s="65"/>
-      <c r="M32" s="65"/>
-      <c r="N32" s="66"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="60"/>
+      <c r="N32" s="61"/>
       <c r="O32" s="18"/>
       <c r="P32" s="18"/>
       <c r="Q32" s="18"/>
@@ -3032,10 +3254,10 @@
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="9"/>
-      <c r="K33" s="91"/>
-      <c r="L33" s="65"/>
-      <c r="M33" s="65"/>
-      <c r="N33" s="66"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="60"/>
+      <c r="N33" s="61"/>
       <c r="O33" s="18"/>
       <c r="P33" s="18"/>
       <c r="Q33" s="18"/>
@@ -3053,10 +3275,10 @@
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
       <c r="J34" s="9"/>
-      <c r="K34" s="91"/>
-      <c r="L34" s="65"/>
-      <c r="M34" s="65"/>
-      <c r="N34" s="66"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="61"/>
       <c r="O34" s="18"/>
       <c r="P34" s="18"/>
       <c r="Q34" s="18"/>
@@ -3074,10 +3296,10 @@
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="9"/>
-      <c r="K35" s="91"/>
-      <c r="L35" s="65"/>
-      <c r="M35" s="65"/>
-      <c r="N35" s="66"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="61"/>
       <c r="O35" s="18"/>
       <c r="P35" s="18"/>
       <c r="Q35" s="18"/>
@@ -3095,10 +3317,10 @@
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="9"/>
-      <c r="K36" s="91"/>
-      <c r="L36" s="65"/>
-      <c r="M36" s="65"/>
-      <c r="N36" s="66"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60"/>
+      <c r="N36" s="61"/>
       <c r="O36" s="18"/>
       <c r="P36" s="18"/>
       <c r="Q36" s="18"/>
@@ -3116,10 +3338,10 @@
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="9"/>
-      <c r="K37" s="91"/>
-      <c r="L37" s="65"/>
-      <c r="M37" s="65"/>
-      <c r="N37" s="66"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="60"/>
+      <c r="N37" s="61"/>
       <c r="O37" s="18"/>
       <c r="P37" s="18"/>
       <c r="Q37" s="18"/>
@@ -3138,21 +3360,21 @@
       <c r="G38" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H38" s="92" t="s">
+      <c r="H38" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="I38" s="93"/>
-      <c r="J38" s="93"/>
-      <c r="K38" s="93"/>
-      <c r="L38" s="93"/>
-      <c r="M38" s="93"/>
-      <c r="N38" s="93"/>
-      <c r="O38" s="93"/>
-      <c r="P38" s="93"/>
-      <c r="Q38" s="93"/>
-      <c r="R38" s="93"/>
-      <c r="S38" s="93"/>
-      <c r="T38" s="94"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="54"/>
+      <c r="R38" s="54"/>
+      <c r="S38" s="54"/>
+      <c r="T38" s="55"/>
     </row>
     <row r="39" spans="2:20">
       <c r="B39" s="6"/>
@@ -3163,21 +3385,21 @@
       <c r="G39" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H39" s="92" t="s">
+      <c r="H39" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="I39" s="93"/>
-      <c r="J39" s="93"/>
-      <c r="K39" s="93"/>
-      <c r="L39" s="93"/>
-      <c r="M39" s="93"/>
-      <c r="N39" s="93"/>
-      <c r="O39" s="93"/>
-      <c r="P39" s="93"/>
-      <c r="Q39" s="93"/>
-      <c r="R39" s="93"/>
-      <c r="S39" s="93"/>
-      <c r="T39" s="94"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="54"/>
+      <c r="Q39" s="54"/>
+      <c r="R39" s="54"/>
+      <c r="S39" s="54"/>
+      <c r="T39" s="55"/>
     </row>
     <row r="40" spans="2:20">
       <c r="B40" s="6"/>
@@ -3188,21 +3410,21 @@
       <c r="G40" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H40" s="92" t="s">
+      <c r="H40" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="I40" s="93"/>
-      <c r="J40" s="93"/>
-      <c r="K40" s="93"/>
-      <c r="L40" s="93"/>
-      <c r="M40" s="93"/>
-      <c r="N40" s="93"/>
-      <c r="O40" s="93"/>
-      <c r="P40" s="93"/>
-      <c r="Q40" s="93"/>
-      <c r="R40" s="93"/>
-      <c r="S40" s="93"/>
-      <c r="T40" s="94"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="54"/>
+      <c r="K40" s="54"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="54"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="54"/>
+      <c r="R40" s="54"/>
+      <c r="S40" s="54"/>
+      <c r="T40" s="55"/>
     </row>
     <row r="41" spans="2:20">
       <c r="B41" s="6"/>
@@ -3213,21 +3435,21 @@
       <c r="G41" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H41" s="92" t="s">
+      <c r="H41" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="I41" s="93"/>
-      <c r="J41" s="93"/>
-      <c r="K41" s="93"/>
-      <c r="L41" s="93"/>
-      <c r="M41" s="93"/>
-      <c r="N41" s="93"/>
-      <c r="O41" s="93"/>
-      <c r="P41" s="93"/>
-      <c r="Q41" s="93"/>
-      <c r="R41" s="93"/>
-      <c r="S41" s="93"/>
-      <c r="T41" s="94"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="54"/>
+      <c r="O41" s="54"/>
+      <c r="P41" s="54"/>
+      <c r="Q41" s="54"/>
+      <c r="R41" s="54"/>
+      <c r="S41" s="54"/>
+      <c r="T41" s="55"/>
     </row>
     <row r="42" spans="2:20" ht="17.25" thickBot="1">
       <c r="B42" s="11"/>
@@ -3236,55 +3458,22 @@
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
       <c r="G42" s="12"/>
-      <c r="H42" s="95"/>
-      <c r="I42" s="96"/>
-      <c r="J42" s="96"/>
-      <c r="K42" s="96"/>
-      <c r="L42" s="96"/>
-      <c r="M42" s="96"/>
-      <c r="N42" s="96"/>
-      <c r="O42" s="96"/>
-      <c r="P42" s="96"/>
-      <c r="Q42" s="96"/>
-      <c r="R42" s="96"/>
-      <c r="S42" s="96"/>
-      <c r="T42" s="97"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
+      <c r="K42" s="57"/>
+      <c r="L42" s="57"/>
+      <c r="M42" s="57"/>
+      <c r="N42" s="57"/>
+      <c r="O42" s="57"/>
+      <c r="P42" s="57"/>
+      <c r="Q42" s="57"/>
+      <c r="R42" s="57"/>
+      <c r="S42" s="57"/>
+      <c r="T42" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="H39:T39"/>
-    <mergeCell ref="H40:T40"/>
-    <mergeCell ref="H41:T41"/>
-    <mergeCell ref="H42:T42"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="H38:T38"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="O19:S19"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="B19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
     <mergeCell ref="J19:J20"/>
     <mergeCell ref="K19:N20"/>
     <mergeCell ref="B2:H3"/>
@@ -3301,17 +3490,50 @@
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H11:I11"/>
+    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="H38:T38"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="H39:T39"/>
+    <mergeCell ref="H40:T40"/>
+    <mergeCell ref="H41:T41"/>
+    <mergeCell ref="H42:T42"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B21:G42 G7:G13 H9:H10">
-    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21:T37">
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3350,46 +3572,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="9" customHeight="1">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="41"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="93"/>
     </row>
     <row r="3" spans="2:11" ht="9" customHeight="1">
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="96"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="74" t="s">
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="75"/>
+      <c r="H4" s="81"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
       <c r="G5" s="31">
         <v>44039</v>
       </c>
@@ -3399,218 +3621,218 @@
     </row>
     <row r="6" spans="2:11" ht="9" customHeight="1"/>
     <row r="7" spans="2:11">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="101"/>
       <c r="G7" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="61"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="111"/>
       <c r="K7" s="29" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="52"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="54"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="104"/>
       <c r="G8" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="63"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="85"/>
       <c r="K8" s="29" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="52"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="76" t="s">
+      <c r="B9" s="102"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="45" t="s">
+      <c r="H9" s="97" t="s">
         <v>81</v>
       </c>
-      <c r="I9" s="45"/>
+      <c r="I9" s="97"/>
       <c r="K9" s="29" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="52"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="45" t="s">
+      <c r="B10" s="102"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="I10" s="45"/>
+      <c r="I10" s="97"/>
       <c r="K10" s="29" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="52"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="54"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="104"/>
       <c r="G11" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="62"/>
-      <c r="I11" s="63"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="85"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="52"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="54"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="104"/>
       <c r="G12" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="62" t="s">
+      <c r="H12" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="I12" s="63"/>
+      <c r="I12" s="85"/>
       <c r="K12" s="29" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="55"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="57"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="107"/>
       <c r="G13" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="98" t="s">
+      <c r="H13" s="112" t="s">
         <v>84</v>
       </c>
-      <c r="I13" s="99"/>
+      <c r="I13" s="113"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="78" t="s">
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="79"/>
-      <c r="I14" s="80"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="88"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="55"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="78" t="s">
+      <c r="B15" s="105"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="79"/>
-      <c r="I15" s="80"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="88"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="59" t="s">
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="109" t="s">
         <v>82</v>
       </c>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="109"/>
     </row>
     <row r="17" spans="2:20">
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
     </row>
     <row r="18" spans="2:20" ht="6.75" customHeight="1" thickBot="1"/>
     <row r="19" spans="2:20">
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="46" t="s">
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="G19" s="73" t="s">
+      <c r="G19" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="46" t="s">
+      <c r="H19" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="46" t="s">
+      <c r="I19" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="46" t="s">
+      <c r="J19" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="K19" s="81" t="s">
+      <c r="K19" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="68"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="83" t="s">
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="P19" s="84"/>
-      <c r="Q19" s="84"/>
-      <c r="R19" s="84"/>
-      <c r="S19" s="85"/>
-      <c r="T19" s="86" t="s">
+      <c r="P19" s="63"/>
+      <c r="Q19" s="63"/>
+      <c r="R19" s="63"/>
+      <c r="S19" s="64"/>
+      <c r="T19" s="65" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:20" ht="17.25" thickBot="1">
-      <c r="B20" s="70"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="72"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="76"/>
       <c r="O20" s="21" t="s">
         <v>4</v>
       </c>
@@ -3626,7 +3848,7 @@
       <c r="S20" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="T20" s="87"/>
+      <c r="T20" s="66"/>
     </row>
     <row r="21" spans="2:20">
       <c r="B21" s="2">
@@ -3656,12 +3878,12 @@
       <c r="J21" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="K21" s="88" t="s">
+      <c r="K21" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="90"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="69"/>
       <c r="O21" s="16" t="s">
         <v>15</v>
       </c>
@@ -3705,12 +3927,12 @@
       <c r="J22" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="K22" s="64" t="s">
+      <c r="K22" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="65"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="66"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="61"/>
       <c r="O22" s="17"/>
       <c r="P22" s="18"/>
       <c r="Q22" s="18"/>
@@ -3744,12 +3966,12 @@
       <c r="J23" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="K23" s="91" t="s">
+      <c r="K23" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="66"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="61"/>
       <c r="O23" s="18"/>
       <c r="P23" s="18"/>
       <c r="Q23" s="18"/>
@@ -3767,10 +3989,10 @@
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="9"/>
-      <c r="K24" s="91"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="66"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="61"/>
       <c r="O24" s="18"/>
       <c r="P24" s="18"/>
       <c r="Q24" s="18"/>
@@ -3804,10 +4026,10 @@
       <c r="J25" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="K25" s="91"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="65"/>
-      <c r="N25" s="66"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="61"/>
       <c r="O25" s="18"/>
       <c r="P25" s="18"/>
       <c r="Q25" s="18"/>
@@ -3841,10 +4063,10 @@
       <c r="J26" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="K26" s="91"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="65"/>
-      <c r="N26" s="66"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="61"/>
       <c r="O26" s="18"/>
       <c r="P26" s="18"/>
       <c r="Q26" s="18"/>
@@ -3864,10 +4086,10 @@
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="9"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="66"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="60"/>
+      <c r="N27" s="61"/>
       <c r="O27" s="18"/>
       <c r="P27" s="18"/>
       <c r="Q27" s="18"/>
@@ -3885,10 +4107,10 @@
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="9"/>
-      <c r="K28" s="91"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="66"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="61"/>
       <c r="O28" s="18"/>
       <c r="P28" s="18"/>
       <c r="Q28" s="18"/>
@@ -3906,10 +4128,10 @@
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="9"/>
-      <c r="K29" s="91"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="65"/>
-      <c r="N29" s="66"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="61"/>
       <c r="O29" s="18"/>
       <c r="P29" s="18"/>
       <c r="Q29" s="18"/>
@@ -3927,10 +4149,10 @@
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="9"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="65"/>
-      <c r="M30" s="65"/>
-      <c r="N30" s="66"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="61"/>
       <c r="O30" s="18"/>
       <c r="P30" s="18"/>
       <c r="Q30" s="18"/>
@@ -3952,10 +4174,10 @@
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="9"/>
-      <c r="K31" s="91"/>
-      <c r="L31" s="65"/>
-      <c r="M31" s="65"/>
-      <c r="N31" s="66"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="60"/>
+      <c r="N31" s="61"/>
       <c r="O31" s="18"/>
       <c r="P31" s="18"/>
       <c r="Q31" s="18"/>
@@ -3977,10 +4199,10 @@
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="9"/>
-      <c r="K32" s="91"/>
-      <c r="L32" s="65"/>
-      <c r="M32" s="65"/>
-      <c r="N32" s="66"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="60"/>
+      <c r="N32" s="61"/>
       <c r="O32" s="18"/>
       <c r="P32" s="18"/>
       <c r="Q32" s="18"/>
@@ -4002,10 +4224,10 @@
         <v>89</v>
       </c>
       <c r="J33" s="9"/>
-      <c r="K33" s="91"/>
-      <c r="L33" s="65"/>
-      <c r="M33" s="65"/>
-      <c r="N33" s="66"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="60"/>
+      <c r="N33" s="61"/>
       <c r="O33" s="18"/>
       <c r="P33" s="18"/>
       <c r="Q33" s="18"/>
@@ -4027,10 +4249,10 @@
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="9"/>
-      <c r="K34" s="91"/>
-      <c r="L34" s="65"/>
-      <c r="M34" s="65"/>
-      <c r="N34" s="66"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="61"/>
       <c r="O34" s="18"/>
       <c r="P34" s="18"/>
       <c r="Q34" s="18"/>
@@ -4048,10 +4270,10 @@
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="9"/>
-      <c r="K35" s="91"/>
-      <c r="L35" s="65"/>
-      <c r="M35" s="65"/>
-      <c r="N35" s="66"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="61"/>
       <c r="O35" s="18"/>
       <c r="P35" s="18"/>
       <c r="Q35" s="18"/>
@@ -4068,10 +4290,10 @@
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="9"/>
-      <c r="K36" s="91"/>
-      <c r="L36" s="65"/>
-      <c r="M36" s="65"/>
-      <c r="N36" s="66"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60"/>
+      <c r="N36" s="61"/>
       <c r="O36" s="18"/>
       <c r="P36" s="18"/>
       <c r="Q36" s="18"/>
@@ -4089,10 +4311,10 @@
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="9"/>
-      <c r="K37" s="91"/>
-      <c r="L37" s="65"/>
-      <c r="M37" s="65"/>
-      <c r="N37" s="66"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="60"/>
+      <c r="N37" s="61"/>
       <c r="O37" s="18"/>
       <c r="P37" s="18"/>
       <c r="Q37" s="18"/>
@@ -4119,21 +4341,21 @@
       <c r="G39" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H39" s="92" t="s">
+      <c r="H39" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="I39" s="93"/>
-      <c r="J39" s="93"/>
-      <c r="K39" s="93"/>
-      <c r="L39" s="93"/>
-      <c r="M39" s="93"/>
-      <c r="N39" s="93"/>
-      <c r="O39" s="93"/>
-      <c r="P39" s="93"/>
-      <c r="Q39" s="93"/>
-      <c r="R39" s="93"/>
-      <c r="S39" s="93"/>
-      <c r="T39" s="94"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="54"/>
+      <c r="Q39" s="54"/>
+      <c r="R39" s="54"/>
+      <c r="S39" s="54"/>
+      <c r="T39" s="55"/>
     </row>
     <row r="40" spans="2:20">
       <c r="B40" s="6"/>
@@ -4191,7 +4413,7 @@
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
-      <c r="G42" s="100" t="s">
+      <c r="G42" s="45" t="s">
         <v>27</v>
       </c>
       <c r="H42" s="36" t="s">
@@ -4212,6 +4434,43 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B7:F13"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B14:F15"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:N20"/>
+    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
     <mergeCell ref="K35:N35"/>
     <mergeCell ref="K36:N36"/>
     <mergeCell ref="K37:N37"/>
@@ -4222,6 +4481,1974 @@
     <mergeCell ref="K32:N32"/>
     <mergeCell ref="K33:N33"/>
     <mergeCell ref="K34:N34"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="G7:G13 H9:H10 B21:G21 B32:F42 G32:G35 G37:G42 B27:G31 F22:G26">
+    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21:T37">
+    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:E26">
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.55118110236220474" right="0.55118110236220474" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:T46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42:T46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="2.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="2" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" style="1" customWidth="1"/>
+    <col min="9" max="9" width="71.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8" style="1" customWidth="1"/>
+    <col min="11" max="14" width="2.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="6.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="9" customHeight="1">
+      <c r="B2" s="91" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="93"/>
+    </row>
+    <row r="3" spans="2:11" ht="9" customHeight="1">
+      <c r="B3" s="94"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="96"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="108" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="81"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="108" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="31">
+        <v>44119</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="9" customHeight="1"/>
+    <row r="7" spans="2:11">
+      <c r="B7" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="110"/>
+      <c r="I7" s="111"/>
+      <c r="K7" s="29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="102"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="110" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" s="111"/>
+      <c r="K8" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="102"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="97" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="97"/>
+      <c r="K9" s="29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="102"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="97" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" s="97"/>
+      <c r="K10" s="29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="102"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="86" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="88"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="102"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="84"/>
+      <c r="I12" s="85"/>
+      <c r="K12" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="105"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="112" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" s="113"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="99" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="87"/>
+      <c r="I14" s="88"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="105"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="87"/>
+      <c r="I15" s="88"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="98" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="109" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="109"/>
+      <c r="I16" s="109"/>
+    </row>
+    <row r="17" spans="2:20">
+      <c r="B17" s="98" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+    </row>
+    <row r="18" spans="2:20" ht="6.75" customHeight="1" thickBot="1"/>
+    <row r="19" spans="2:20">
+      <c r="B19" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="63"/>
+      <c r="Q19" s="63"/>
+      <c r="R19" s="63"/>
+      <c r="S19" s="64"/>
+      <c r="T19" s="65" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" ht="17.25" thickBot="1">
+      <c r="B20" s="74"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="R20" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="S20" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="T20" s="66"/>
+    </row>
+    <row r="21" spans="2:20">
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="13">
+        <v>1</v>
+      </c>
+      <c r="D21" s="13">
+        <v>1</v>
+      </c>
+      <c r="E21" s="13">
+        <v>1</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="19"/>
+    </row>
+    <row r="22" spans="2:20" ht="16.5" customHeight="1">
+      <c r="B22" s="6">
+        <v>1</v>
+      </c>
+      <c r="C22" s="14">
+        <v>1</v>
+      </c>
+      <c r="D22" s="14">
+        <v>2</v>
+      </c>
+      <c r="E22" s="14">
+        <v>1</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J22" s="9"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="20"/>
+    </row>
+    <row r="23" spans="2:20">
+      <c r="B23" s="6">
+        <v>1</v>
+      </c>
+      <c r="C23" s="14">
+        <v>1</v>
+      </c>
+      <c r="D23" s="14">
+        <v>2</v>
+      </c>
+      <c r="E23" s="14">
+        <v>1</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="J23" s="9"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="10"/>
+    </row>
+    <row r="24" spans="2:20" ht="17.25" thickBot="1">
+      <c r="B24" s="6"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="J24" s="9"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="10"/>
+    </row>
+    <row r="25" spans="2:20">
+      <c r="B25" s="6">
+        <v>1</v>
+      </c>
+      <c r="C25" s="14">
+        <v>2</v>
+      </c>
+      <c r="D25" s="14">
+        <v>1</v>
+      </c>
+      <c r="E25" s="14">
+        <v>1</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="J25" s="9"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="10"/>
+    </row>
+    <row r="26" spans="2:20">
+      <c r="B26" s="6">
+        <v>1</v>
+      </c>
+      <c r="C26" s="14">
+        <v>2</v>
+      </c>
+      <c r="D26" s="14">
+        <v>1</v>
+      </c>
+      <c r="E26" s="14">
+        <v>2</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="G26" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="J26" s="9"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="10"/>
+    </row>
+    <row r="27" spans="2:20">
+      <c r="B27" s="6"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J27" s="9"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="60"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="10"/>
+    </row>
+    <row r="28" spans="2:20">
+      <c r="B28" s="6"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H28" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="I28" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="J28" s="9"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="61"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="10"/>
+    </row>
+    <row r="29" spans="2:20">
+      <c r="B29" s="6"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J29" s="9"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="10"/>
+    </row>
+    <row r="30" spans="2:20">
+      <c r="B30" s="6"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="G30" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="H30" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="J30" s="9"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="10"/>
+    </row>
+    <row r="31" spans="2:20">
+      <c r="B31" s="6"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="10"/>
+    </row>
+    <row r="32" spans="2:20">
+      <c r="B32" s="6"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="10"/>
+    </row>
+    <row r="33" spans="2:20">
+      <c r="B33" s="6"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="10"/>
+    </row>
+    <row r="34" spans="2:20">
+      <c r="B34" s="6"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="10"/>
+    </row>
+    <row r="35" spans="2:20">
+      <c r="B35" s="6"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="J35" s="9"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="61"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="10"/>
+    </row>
+    <row r="36" spans="2:20">
+      <c r="B36" s="6"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60"/>
+      <c r="N36" s="61"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="18"/>
+      <c r="T36" s="10"/>
+    </row>
+    <row r="37" spans="2:20">
+      <c r="B37" s="6"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="10"/>
+    </row>
+    <row r="38" spans="2:20">
+      <c r="B38" s="6"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I38" s="8"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="60"/>
+      <c r="N38" s="61"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="10"/>
+    </row>
+    <row r="39" spans="2:20">
+      <c r="B39" s="6"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="60"/>
+      <c r="M39" s="60"/>
+      <c r="N39" s="61"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="10"/>
+    </row>
+    <row r="40" spans="2:20">
+      <c r="B40" s="6"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="18"/>
+      <c r="S40" s="18"/>
+      <c r="T40" s="10"/>
+    </row>
+    <row r="41" spans="2:20">
+      <c r="B41" s="23"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="60"/>
+      <c r="M41" s="60"/>
+      <c r="N41" s="61"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="18"/>
+      <c r="T41" s="10"/>
+    </row>
+    <row r="42" spans="2:20">
+      <c r="B42" s="26"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" s="25"/>
+      <c r="T42" s="47"/>
+    </row>
+    <row r="43" spans="2:20">
+      <c r="B43" s="6"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="I43" s="54"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="54"/>
+      <c r="N43" s="54"/>
+      <c r="O43" s="54"/>
+      <c r="P43" s="54"/>
+      <c r="Q43" s="54"/>
+      <c r="R43" s="54"/>
+      <c r="S43" s="54"/>
+      <c r="T43" s="55"/>
+    </row>
+    <row r="44" spans="2:20">
+      <c r="B44" s="6"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H44" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="37"/>
+      <c r="N44" s="37"/>
+      <c r="O44" s="37"/>
+      <c r="P44" s="37"/>
+      <c r="Q44" s="37"/>
+      <c r="R44" s="37"/>
+      <c r="S44" s="37"/>
+      <c r="T44" s="38"/>
+    </row>
+    <row r="45" spans="2:20">
+      <c r="B45" s="6"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="37"/>
+      <c r="N45" s="37"/>
+      <c r="O45" s="37"/>
+      <c r="P45" s="37"/>
+      <c r="Q45" s="37"/>
+      <c r="R45" s="37"/>
+      <c r="S45" s="37"/>
+      <c r="T45" s="38"/>
+    </row>
+    <row r="46" spans="2:20" ht="17.25" thickBot="1">
+      <c r="B46" s="11"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="37"/>
+      <c r="N46" s="37"/>
+      <c r="O46" s="37"/>
+      <c r="P46" s="37"/>
+      <c r="Q46" s="37"/>
+      <c r="R46" s="37"/>
+      <c r="S46" s="37"/>
+      <c r="T46" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="46">
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B7:F13"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B14:F15"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:N20"/>
+    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="H43:T43"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="G7:G13 H9:H10 G41:G46 B21:G29 B30:E34 B35:G35 B36:F46 G38">
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21:T41">
+    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.55118110236220474" right="0.55118110236220474" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:T46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13:I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="2.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="2" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" style="1" customWidth="1"/>
+    <col min="9" max="9" width="71.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8" style="1" customWidth="1"/>
+    <col min="11" max="14" width="2.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="6.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="9" customHeight="1">
+      <c r="B2" s="91" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="93"/>
+    </row>
+    <row r="3" spans="2:11" ht="9" customHeight="1">
+      <c r="B3" s="94"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="96"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="108" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="80" t="s">
+        <v>131</v>
+      </c>
+      <c r="H4" s="81"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="108" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="31">
+        <v>44123</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="9" customHeight="1"/>
+    <row r="7" spans="2:11">
+      <c r="B7" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="110" t="s">
+        <v>132</v>
+      </c>
+      <c r="I7" s="111"/>
+      <c r="K7" s="29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="102"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="110" t="s">
+        <v>130</v>
+      </c>
+      <c r="I8" s="111"/>
+      <c r="K8" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="102"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="97" t="s">
+        <v>133</v>
+      </c>
+      <c r="I9" s="97"/>
+      <c r="K9" s="29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="102"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="97" t="s">
+        <v>134</v>
+      </c>
+      <c r="I10" s="97"/>
+      <c r="K10" s="29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="102"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="86" t="s">
+        <v>135</v>
+      </c>
+      <c r="I11" s="88"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="102"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="84"/>
+      <c r="I12" s="85"/>
+      <c r="K12" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="105"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="112" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" s="113"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="99" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="87"/>
+      <c r="I14" s="88"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="105"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="87"/>
+      <c r="I15" s="88"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="98" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="109" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="109"/>
+      <c r="I16" s="109"/>
+    </row>
+    <row r="17" spans="2:20">
+      <c r="B17" s="98" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+    </row>
+    <row r="18" spans="2:20" ht="6.75" customHeight="1" thickBot="1"/>
+    <row r="19" spans="2:20">
+      <c r="B19" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="63"/>
+      <c r="Q19" s="63"/>
+      <c r="R19" s="63"/>
+      <c r="S19" s="64"/>
+      <c r="T19" s="65" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" ht="17.25" thickBot="1">
+      <c r="B20" s="74"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="R20" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="S20" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="T20" s="66"/>
+    </row>
+    <row r="21" spans="2:20">
+      <c r="B21" s="2"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="19"/>
+    </row>
+    <row r="22" spans="2:20" ht="16.5" customHeight="1">
+      <c r="B22" s="6"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="J22" s="9"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="20"/>
+    </row>
+    <row r="23" spans="2:20">
+      <c r="B23" s="6"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="J23" s="9"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="10"/>
+    </row>
+    <row r="24" spans="2:20" ht="17.25" thickBot="1">
+      <c r="B24" s="6"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="J24" s="9"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="10"/>
+    </row>
+    <row r="25" spans="2:20">
+      <c r="B25" s="6"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="J25" s="9"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="10"/>
+    </row>
+    <row r="26" spans="2:20">
+      <c r="B26" s="6"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="J26" s="9"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="10"/>
+    </row>
+    <row r="27" spans="2:20">
+      <c r="B27" s="6"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="J27" s="9"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="60"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="10"/>
+    </row>
+    <row r="28" spans="2:20">
+      <c r="B28" s="6"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="61"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="10"/>
+    </row>
+    <row r="29" spans="2:20">
+      <c r="B29" s="6"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="10"/>
+    </row>
+    <row r="30" spans="2:20">
+      <c r="B30" s="6"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="10"/>
+    </row>
+    <row r="31" spans="2:20">
+      <c r="B31" s="6"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="10"/>
+    </row>
+    <row r="32" spans="2:20">
+      <c r="B32" s="6"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="10"/>
+    </row>
+    <row r="33" spans="2:20">
+      <c r="B33" s="6"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="10"/>
+    </row>
+    <row r="34" spans="2:20">
+      <c r="B34" s="6"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="10"/>
+    </row>
+    <row r="35" spans="2:20">
+      <c r="B35" s="6"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="61"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="10"/>
+    </row>
+    <row r="36" spans="2:20">
+      <c r="B36" s="6"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60"/>
+      <c r="N36" s="61"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="18"/>
+      <c r="T36" s="10"/>
+    </row>
+    <row r="37" spans="2:20">
+      <c r="B37" s="6"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="10"/>
+    </row>
+    <row r="38" spans="2:20">
+      <c r="B38" s="6"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="60"/>
+      <c r="N38" s="61"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="10"/>
+    </row>
+    <row r="39" spans="2:20">
+      <c r="B39" s="6"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="60"/>
+      <c r="M39" s="60"/>
+      <c r="N39" s="61"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="10"/>
+    </row>
+    <row r="40" spans="2:20">
+      <c r="B40" s="6"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="18"/>
+      <c r="S40" s="18"/>
+      <c r="T40" s="10"/>
+    </row>
+    <row r="41" spans="2:20">
+      <c r="B41" s="23"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="60"/>
+      <c r="M41" s="60"/>
+      <c r="N41" s="61"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="18"/>
+      <c r="T41" s="10"/>
+    </row>
+    <row r="42" spans="2:20">
+      <c r="B42" s="26"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" s="25"/>
+      <c r="T42" s="47"/>
+    </row>
+    <row r="43" spans="2:20">
+      <c r="B43" s="6"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="I43" s="54"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="54"/>
+      <c r="N43" s="54"/>
+      <c r="O43" s="54"/>
+      <c r="P43" s="54"/>
+      <c r="Q43" s="54"/>
+      <c r="R43" s="54"/>
+      <c r="S43" s="54"/>
+      <c r="T43" s="55"/>
+    </row>
+    <row r="44" spans="2:20">
+      <c r="B44" s="6"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H44" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="43"/>
+      <c r="O44" s="43"/>
+      <c r="P44" s="43"/>
+      <c r="Q44" s="43"/>
+      <c r="R44" s="43"/>
+      <c r="S44" s="43"/>
+      <c r="T44" s="44"/>
+    </row>
+    <row r="45" spans="2:20">
+      <c r="B45" s="6"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="43"/>
+      <c r="O45" s="43"/>
+      <c r="P45" s="43"/>
+      <c r="Q45" s="43"/>
+      <c r="R45" s="43"/>
+      <c r="S45" s="43"/>
+      <c r="T45" s="44"/>
+    </row>
+    <row r="46" spans="2:20" ht="17.25" thickBot="1">
+      <c r="B46" s="11"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="43"/>
+      <c r="O46" s="43"/>
+      <c r="P46" s="43"/>
+      <c r="Q46" s="43"/>
+      <c r="R46" s="43"/>
+      <c r="S46" s="43"/>
+      <c r="T46" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="46">
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="H43:T43"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K38:N38"/>
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="K24:N24"/>
     <mergeCell ref="K25:N25"/>
@@ -4261,18 +6488,18 @@
     <mergeCell ref="H10:I10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G7:G13 H9:H10 B21:G21 B32:F42 G32:G35 G37:G42 B27:G31 F22:G26">
-    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="G7:G13 H9:H10 G41 B21:G29 B30:E34 B35:G35 G38 B36:F41 B42:E46">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:T37">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="K21:T41">
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:E26">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="F42:G46">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4282,1038 +6509,4 @@
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:T46"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="2.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="2" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" style="1" customWidth="1"/>
-    <col min="9" max="9" width="71.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8" style="1" customWidth="1"/>
-    <col min="11" max="14" width="2.77734375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="6.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" ht="9" customHeight="1">
-      <c r="B2" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="41"/>
-    </row>
-    <row r="3" spans="2:11" ht="9" customHeight="1">
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="74" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="75"/>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="31">
-        <v>44119</v>
-      </c>
-      <c r="H5" s="32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" ht="9" customHeight="1"/>
-    <row r="7" spans="2:11">
-      <c r="B7" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="61"/>
-      <c r="K7" s="29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="52"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="I8" s="61"/>
-      <c r="K8" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="52"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="76" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="I9" s="45"/>
-      <c r="K9" s="29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="52"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="I10" s="45"/>
-      <c r="K10" s="29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="52"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="78" t="s">
-        <v>94</v>
-      </c>
-      <c r="I11" s="80"/>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="52"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="62"/>
-      <c r="I12" s="63"/>
-      <c r="K12" s="29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="55"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="98" t="s">
-        <v>95</v>
-      </c>
-      <c r="I13" s="99"/>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="B14" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="79"/>
-      <c r="I14" s="80"/>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="55"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" s="79"/>
-      <c r="I15" s="80"/>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-    </row>
-    <row r="17" spans="2:20">
-      <c r="B17" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-    </row>
-    <row r="18" spans="2:20" ht="6.75" customHeight="1" thickBot="1"/>
-    <row r="19" spans="2:20">
-      <c r="B19" s="67" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="68"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="83" t="s">
-        <v>13</v>
-      </c>
-      <c r="P19" s="84"/>
-      <c r="Q19" s="84"/>
-      <c r="R19" s="84"/>
-      <c r="S19" s="85"/>
-      <c r="T19" s="86" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="2:20" ht="17.25" thickBot="1">
-      <c r="B20" s="70"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="72"/>
-      <c r="O20" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="P20" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q20" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="R20" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="S20" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="T20" s="87"/>
-    </row>
-    <row r="21" spans="2:20">
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-      <c r="C21" s="13">
-        <v>1</v>
-      </c>
-      <c r="D21" s="13">
-        <v>1</v>
-      </c>
-      <c r="E21" s="13">
-        <v>1</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H21" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="90"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="19"/>
-    </row>
-    <row r="22" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B22" s="6">
-        <v>1</v>
-      </c>
-      <c r="C22" s="14">
-        <v>1</v>
-      </c>
-      <c r="D22" s="14">
-        <v>2</v>
-      </c>
-      <c r="E22" s="14">
-        <v>1</v>
-      </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="20"/>
-    </row>
-    <row r="23" spans="2:20">
-      <c r="B23" s="6">
-        <v>1</v>
-      </c>
-      <c r="C23" s="14">
-        <v>1</v>
-      </c>
-      <c r="D23" s="14">
-        <v>2</v>
-      </c>
-      <c r="E23" s="14">
-        <v>1</v>
-      </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="91"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="10"/>
-    </row>
-    <row r="24" spans="2:20" ht="17.25" thickBot="1">
-      <c r="B24" s="6"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="91"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="10"/>
-    </row>
-    <row r="25" spans="2:20">
-      <c r="B25" s="6">
-        <v>1</v>
-      </c>
-      <c r="C25" s="14">
-        <v>2</v>
-      </c>
-      <c r="D25" s="14">
-        <v>1</v>
-      </c>
-      <c r="E25" s="14">
-        <v>1</v>
-      </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J25" s="9"/>
-      <c r="K25" s="91"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="65"/>
-      <c r="N25" s="66"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
-      <c r="T25" s="10"/>
-    </row>
-    <row r="26" spans="2:20">
-      <c r="B26" s="6">
-        <v>1</v>
-      </c>
-      <c r="C26" s="14">
-        <v>2</v>
-      </c>
-      <c r="D26" s="14">
-        <v>1</v>
-      </c>
-      <c r="E26" s="14">
-        <v>2</v>
-      </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="J26" s="9"/>
-      <c r="K26" s="91"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="65"/>
-      <c r="N26" s="66"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="10"/>
-    </row>
-    <row r="27" spans="2:20">
-      <c r="B27" s="6"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="10"/>
-    </row>
-    <row r="28" spans="2:20">
-      <c r="B28" s="6"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H28" s="103" t="s">
-        <v>117</v>
-      </c>
-      <c r="I28" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="J28" s="9"/>
-      <c r="K28" s="91"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="66"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="10"/>
-    </row>
-    <row r="29" spans="2:20">
-      <c r="B29" s="6"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="J29" s="9"/>
-      <c r="K29" s="91"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="65"/>
-      <c r="N29" s="66"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-      <c r="T29" s="10"/>
-    </row>
-    <row r="30" spans="2:20">
-      <c r="B30" s="6"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="G30" s="104" t="s">
-        <v>119</v>
-      </c>
-      <c r="H30" s="105" t="s">
-        <v>120</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="J30" s="9"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="65"/>
-      <c r="M30" s="65"/>
-      <c r="N30" s="66"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="10"/>
-    </row>
-    <row r="31" spans="2:20">
-      <c r="B31" s="6"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="105"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="10"/>
-    </row>
-    <row r="32" spans="2:20">
-      <c r="B32" s="6"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="105"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="10"/>
-    </row>
-    <row r="33" spans="2:20">
-      <c r="B33" s="6"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="105"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="18"/>
-      <c r="T33" s="10"/>
-    </row>
-    <row r="34" spans="2:20">
-      <c r="B34" s="6"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="G34" s="101"/>
-      <c r="H34" s="101"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="91"/>
-      <c r="L34" s="65"/>
-      <c r="M34" s="65"/>
-      <c r="N34" s="66"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="18"/>
-      <c r="T34" s="10"/>
-    </row>
-    <row r="35" spans="2:20">
-      <c r="B35" s="6"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="J35" s="9"/>
-      <c r="K35" s="91"/>
-      <c r="L35" s="65"/>
-      <c r="M35" s="65"/>
-      <c r="N35" s="66"/>
-      <c r="O35" s="18"/>
-      <c r="P35" s="18"/>
-      <c r="Q35" s="18"/>
-      <c r="R35" s="18"/>
-      <c r="S35" s="18"/>
-      <c r="T35" s="10"/>
-    </row>
-    <row r="36" spans="2:20">
-      <c r="B36" s="6"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="106"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="91"/>
-      <c r="L36" s="65"/>
-      <c r="M36" s="65"/>
-      <c r="N36" s="66"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="18"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="18"/>
-      <c r="T36" s="10"/>
-    </row>
-    <row r="37" spans="2:20">
-      <c r="B37" s="6"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="107"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="10"/>
-    </row>
-    <row r="38" spans="2:20">
-      <c r="B38" s="6"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I38" s="8"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="91"/>
-      <c r="L38" s="65"/>
-      <c r="M38" s="65"/>
-      <c r="N38" s="66"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="10"/>
-    </row>
-    <row r="39" spans="2:20">
-      <c r="B39" s="6"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="91"/>
-      <c r="L39" s="65"/>
-      <c r="M39" s="65"/>
-      <c r="N39" s="66"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="10"/>
-    </row>
-    <row r="40" spans="2:20">
-      <c r="B40" s="6"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="34"/>
-      <c r="N40" s="35"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="10"/>
-    </row>
-    <row r="41" spans="2:20">
-      <c r="B41" s="23"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="91"/>
-      <c r="L41" s="65"/>
-      <c r="M41" s="65"/>
-      <c r="N41" s="66"/>
-      <c r="O41" s="18"/>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="18"/>
-      <c r="R41" s="18"/>
-      <c r="S41" s="18"/>
-      <c r="T41" s="10"/>
-    </row>
-    <row r="42" spans="2:20">
-      <c r="B42" s="26"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="G42" s="25"/>
-      <c r="T42" s="102"/>
-    </row>
-    <row r="43" spans="2:20">
-      <c r="B43" s="6"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="92" t="s">
-        <v>55</v>
-      </c>
-      <c r="I43" s="93"/>
-      <c r="J43" s="93"/>
-      <c r="K43" s="93"/>
-      <c r="L43" s="93"/>
-      <c r="M43" s="93"/>
-      <c r="N43" s="93"/>
-      <c r="O43" s="93"/>
-      <c r="P43" s="93"/>
-      <c r="Q43" s="93"/>
-      <c r="R43" s="93"/>
-      <c r="S43" s="93"/>
-      <c r="T43" s="94"/>
-    </row>
-    <row r="44" spans="2:20">
-      <c r="B44" s="6"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H44" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="I44" s="37"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="37"/>
-      <c r="M44" s="37"/>
-      <c r="N44" s="37"/>
-      <c r="O44" s="37"/>
-      <c r="P44" s="37"/>
-      <c r="Q44" s="37"/>
-      <c r="R44" s="37"/>
-      <c r="S44" s="37"/>
-      <c r="T44" s="38"/>
-    </row>
-    <row r="45" spans="2:20">
-      <c r="B45" s="6"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H45" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="37"/>
-      <c r="L45" s="37"/>
-      <c r="M45" s="37"/>
-      <c r="N45" s="37"/>
-      <c r="O45" s="37"/>
-      <c r="P45" s="37"/>
-      <c r="Q45" s="37"/>
-      <c r="R45" s="37"/>
-      <c r="S45" s="37"/>
-      <c r="T45" s="38"/>
-    </row>
-    <row r="46" spans="2:20" ht="17.25" thickBot="1">
-      <c r="B46" s="11"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="100" t="s">
-        <v>27</v>
-      </c>
-      <c r="H46" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="I46" s="37"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="37"/>
-      <c r="M46" s="37"/>
-      <c r="N46" s="37"/>
-      <c r="O46" s="37"/>
-      <c r="P46" s="37"/>
-      <c r="Q46" s="37"/>
-      <c r="R46" s="37"/>
-      <c r="S46" s="37"/>
-      <c r="T46" s="38"/>
-    </row>
-  </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="H43:T43"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:N20"/>
-    <mergeCell ref="O19:S19"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="B14:F15"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B2:H3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B7:F13"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G7:G13 H9:H10 G41:G46 B21:G29 B30:E34 B35:G35 B36:F46 G38">
-    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K21:T41">
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.55118110236220474" right="0.55118110236220474" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>